--- a/heliosphere仕様関連/heliosphereガントチャート ver2.xlsx
+++ b/heliosphere仕様関連/heliosphereガントチャート ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
   <si>
     <t>●CESA　ガントチャート</t>
     <phoneticPr fontId="1"/>
@@ -922,6 +922,56 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版・β版の作業を完了。マスター版の作業を作業中に</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面作成担当阿形、作業中に</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アガタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1603,7 +1653,22 @@
     <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1612,16 +1677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,13 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2398,9 +2448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2927,7 +2977,7 @@
         <v>43581</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>14</v>
@@ -3015,7 +3065,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>14</v>
@@ -3103,7 +3153,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>14</v>
@@ -4255,9 +4305,11 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -13106,8 +13158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13118,3008 +13170,3038 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="27" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="59">
+      <c r="A3" s="51">
         <v>43570</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="30" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="61">
+      <c r="A4" s="53">
         <v>43570</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="61">
+      <c r="A5" s="53">
         <v>43577</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="61">
+      <c r="A6" s="53">
         <v>43581</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="A7" s="53">
+        <v>43598</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="A8" s="53">
+        <v>43598</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="50"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="50"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="50"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="50"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="50"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="50"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="50"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="50"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="50"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="50"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="50"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="50"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="50"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="50"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="50"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="50"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="50"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="50"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="50"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="55"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="50"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="55"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="50"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="55"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="50"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="50"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="55"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="50"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="50"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="55"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="50"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="50"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="55"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="50"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="50"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="55"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="50"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="55"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="50"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="50"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="50"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="50"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="50"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="50"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="50"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="50"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="50"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A59" s="51"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="50"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A60" s="51"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="50"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="50"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="50"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="50"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="50"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="50"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="55"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="50"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="55"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="50"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="55"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="50"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="55"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="50"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="55"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="50"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="55"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="50"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="55"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="50"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="55"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="50"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="55"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="50"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="55"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A75" s="51"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="50"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="55"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A76" s="51"/>
-      <c r="B76" s="52"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="50"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="55"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A77" s="51"/>
-      <c r="B77" s="52"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="49"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="50"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="55"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A78" s="51"/>
-      <c r="B78" s="52"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="50"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="55"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A79" s="51"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="50"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="55"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A80" s="51"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="50"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="54"/>
+      <c r="Q80" s="55"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A81" s="51"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="49"/>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="50"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="54"/>
+      <c r="Q81" s="55"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="49"/>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="50"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="54"/>
+      <c r="Q82" s="55"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A83" s="51"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="50"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
+      <c r="Q83" s="55"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A84" s="51"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="50"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="54"/>
+      <c r="Q84" s="55"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A85" s="51"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="50"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
+      <c r="Q85" s="55"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A86" s="51"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="50"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="54"/>
+      <c r="Q86" s="55"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="31"/>
       <c r="D87" s="31"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="50"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="55"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="49"/>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="50"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="55"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="50"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="54"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="54"/>
+      <c r="Q89" s="55"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="48"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="50"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="54"/>
+      <c r="O90" s="54"/>
+      <c r="P90" s="54"/>
+      <c r="Q90" s="55"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A91" s="51"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="49"/>
-      <c r="O91" s="49"/>
-      <c r="P91" s="49"/>
-      <c r="Q91" s="50"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="55"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A92" s="51"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="49"/>
-      <c r="O92" s="49"/>
-      <c r="P92" s="49"/>
-      <c r="Q92" s="50"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="55"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A93" s="51"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="49"/>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="50"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="54"/>
+      <c r="O93" s="54"/>
+      <c r="P93" s="54"/>
+      <c r="Q93" s="55"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="49"/>
-      <c r="O94" s="49"/>
-      <c r="P94" s="49"/>
-      <c r="Q94" s="50"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="54"/>
+      <c r="O94" s="54"/>
+      <c r="P94" s="54"/>
+      <c r="Q94" s="55"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="31"/>
       <c r="D95" s="31"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="49"/>
-      <c r="N95" s="49"/>
-      <c r="O95" s="49"/>
-      <c r="P95" s="49"/>
-      <c r="Q95" s="50"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="55"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A96" s="51"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="49"/>
-      <c r="N96" s="49"/>
-      <c r="O96" s="49"/>
-      <c r="P96" s="49"/>
-      <c r="Q96" s="50"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="54"/>
+      <c r="Q96" s="55"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A97" s="51"/>
-      <c r="B97" s="52"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="31"/>
       <c r="D97" s="31"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49"/>
-      <c r="L97" s="49"/>
-      <c r="M97" s="49"/>
-      <c r="N97" s="49"/>
-      <c r="O97" s="49"/>
-      <c r="P97" s="49"/>
-      <c r="Q97" s="50"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="54"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="54"/>
+      <c r="Q97" s="55"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A98" s="51"/>
-      <c r="B98" s="52"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="31"/>
       <c r="D98" s="31"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49"/>
-      <c r="L98" s="49"/>
-      <c r="M98" s="49"/>
-      <c r="N98" s="49"/>
-      <c r="O98" s="49"/>
-      <c r="P98" s="49"/>
-      <c r="Q98" s="50"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="54"/>
+      <c r="O98" s="54"/>
+      <c r="P98" s="54"/>
+      <c r="Q98" s="55"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A99" s="51"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="31"/>
       <c r="D99" s="31"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="50"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="55"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A100" s="51"/>
-      <c r="B100" s="52"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="49"/>
-      <c r="N100" s="49"/>
-      <c r="O100" s="49"/>
-      <c r="P100" s="49"/>
-      <c r="Q100" s="50"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="54"/>
+      <c r="N100" s="54"/>
+      <c r="O100" s="54"/>
+      <c r="P100" s="54"/>
+      <c r="Q100" s="55"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A101" s="51"/>
-      <c r="B101" s="52"/>
+      <c r="A101" s="48"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="49"/>
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
-      <c r="Q101" s="50"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="54"/>
+      <c r="Q101" s="55"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A102" s="51"/>
-      <c r="B102" s="52"/>
+      <c r="A102" s="48"/>
+      <c r="B102" s="49"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="49"/>
-      <c r="I102" s="49"/>
-      <c r="J102" s="49"/>
-      <c r="K102" s="49"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="49"/>
-      <c r="N102" s="49"/>
-      <c r="O102" s="49"/>
-      <c r="P102" s="49"/>
-      <c r="Q102" s="50"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="54"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="54"/>
+      <c r="Q102" s="55"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A103" s="51"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="48"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="49"/>
-      <c r="K103" s="49"/>
-      <c r="L103" s="49"/>
-      <c r="M103" s="49"/>
-      <c r="N103" s="49"/>
-      <c r="O103" s="49"/>
-      <c r="P103" s="49"/>
-      <c r="Q103" s="50"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="55"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A104" s="51"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="48"/>
+      <c r="B104" s="49"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="49"/>
-      <c r="K104" s="49"/>
-      <c r="L104" s="49"/>
-      <c r="M104" s="49"/>
-      <c r="N104" s="49"/>
-      <c r="O104" s="49"/>
-      <c r="P104" s="49"/>
-      <c r="Q104" s="50"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="54"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="54"/>
+      <c r="Q104" s="55"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A105" s="51"/>
-      <c r="B105" s="52"/>
+      <c r="A105" s="48"/>
+      <c r="B105" s="49"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="49"/>
-      <c r="K105" s="49"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="49"/>
-      <c r="N105" s="49"/>
-      <c r="O105" s="49"/>
-      <c r="P105" s="49"/>
-      <c r="Q105" s="50"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="55"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A106" s="51"/>
-      <c r="B106" s="52"/>
+      <c r="A106" s="48"/>
+      <c r="B106" s="49"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
-      <c r="K106" s="49"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="49"/>
-      <c r="N106" s="49"/>
-      <c r="O106" s="49"/>
-      <c r="P106" s="49"/>
-      <c r="Q106" s="50"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="54"/>
+      <c r="P106" s="54"/>
+      <c r="Q106" s="55"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A107" s="51"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
-      <c r="K107" s="49"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="49"/>
-      <c r="N107" s="49"/>
-      <c r="O107" s="49"/>
-      <c r="P107" s="49"/>
-      <c r="Q107" s="50"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="54"/>
+      <c r="O107" s="54"/>
+      <c r="P107" s="54"/>
+      <c r="Q107" s="55"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A108" s="51"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="49"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="49"/>
-      <c r="N108" s="49"/>
-      <c r="O108" s="49"/>
-      <c r="P108" s="49"/>
-      <c r="Q108" s="50"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="54"/>
+      <c r="O108" s="54"/>
+      <c r="P108" s="54"/>
+      <c r="Q108" s="55"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A109" s="51"/>
-      <c r="B109" s="52"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
-      <c r="K109" s="49"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
-      <c r="Q109" s="50"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="54"/>
+      <c r="O109" s="54"/>
+      <c r="P109" s="54"/>
+      <c r="Q109" s="55"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A110" s="51"/>
-      <c r="B110" s="52"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
-      <c r="K110" s="49"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="49"/>
-      <c r="N110" s="49"/>
-      <c r="O110" s="49"/>
-      <c r="P110" s="49"/>
-      <c r="Q110" s="50"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="54"/>
+      <c r="M110" s="54"/>
+      <c r="N110" s="54"/>
+      <c r="O110" s="54"/>
+      <c r="P110" s="54"/>
+      <c r="Q110" s="55"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A111" s="51"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49"/>
-      <c r="J111" s="49"/>
-      <c r="K111" s="49"/>
-      <c r="L111" s="49"/>
-      <c r="M111" s="49"/>
-      <c r="N111" s="49"/>
-      <c r="O111" s="49"/>
-      <c r="P111" s="49"/>
-      <c r="Q111" s="50"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="54"/>
+      <c r="P111" s="54"/>
+      <c r="Q111" s="55"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A112" s="51"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
-      <c r="K112" s="49"/>
-      <c r="L112" s="49"/>
-      <c r="M112" s="49"/>
-      <c r="N112" s="49"/>
-      <c r="O112" s="49"/>
-      <c r="P112" s="49"/>
-      <c r="Q112" s="50"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="54"/>
+      <c r="M112" s="54"/>
+      <c r="N112" s="54"/>
+      <c r="O112" s="54"/>
+      <c r="P112" s="54"/>
+      <c r="Q112" s="55"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A113" s="51"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="48"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="49"/>
-      <c r="K113" s="49"/>
-      <c r="L113" s="49"/>
-      <c r="M113" s="49"/>
-      <c r="N113" s="49"/>
-      <c r="O113" s="49"/>
-      <c r="P113" s="49"/>
-      <c r="Q113" s="50"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="54"/>
+      <c r="O113" s="54"/>
+      <c r="P113" s="54"/>
+      <c r="Q113" s="55"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A114" s="51"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="48"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49"/>
-      <c r="J114" s="49"/>
-      <c r="K114" s="49"/>
-      <c r="L114" s="49"/>
-      <c r="M114" s="49"/>
-      <c r="N114" s="49"/>
-      <c r="O114" s="49"/>
-      <c r="P114" s="49"/>
-      <c r="Q114" s="50"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="54"/>
+      <c r="M114" s="54"/>
+      <c r="N114" s="54"/>
+      <c r="O114" s="54"/>
+      <c r="P114" s="54"/>
+      <c r="Q114" s="55"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A115" s="51"/>
-      <c r="B115" s="52"/>
+      <c r="A115" s="48"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49"/>
-      <c r="J115" s="49"/>
-      <c r="K115" s="49"/>
-      <c r="L115" s="49"/>
-      <c r="M115" s="49"/>
-      <c r="N115" s="49"/>
-      <c r="O115" s="49"/>
-      <c r="P115" s="49"/>
-      <c r="Q115" s="50"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="54"/>
+      <c r="M115" s="54"/>
+      <c r="N115" s="54"/>
+      <c r="O115" s="54"/>
+      <c r="P115" s="54"/>
+      <c r="Q115" s="55"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A116" s="51"/>
-      <c r="B116" s="52"/>
+      <c r="A116" s="48"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="31"/>
       <c r="D116" s="31"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
-      <c r="L116" s="49"/>
-      <c r="M116" s="49"/>
-      <c r="N116" s="49"/>
-      <c r="O116" s="49"/>
-      <c r="P116" s="49"/>
-      <c r="Q116" s="50"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="54"/>
+      <c r="O116" s="54"/>
+      <c r="P116" s="54"/>
+      <c r="Q116" s="55"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A117" s="51"/>
-      <c r="B117" s="52"/>
+      <c r="A117" s="48"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="31"/>
       <c r="D117" s="31"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
-      <c r="L117" s="49"/>
-      <c r="M117" s="49"/>
-      <c r="N117" s="49"/>
-      <c r="O117" s="49"/>
-      <c r="P117" s="49"/>
-      <c r="Q117" s="50"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="54"/>
+      <c r="N117" s="54"/>
+      <c r="O117" s="54"/>
+      <c r="P117" s="54"/>
+      <c r="Q117" s="55"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A118" s="51"/>
-      <c r="B118" s="52"/>
+      <c r="A118" s="48"/>
+      <c r="B118" s="49"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
-      <c r="K118" s="49"/>
-      <c r="L118" s="49"/>
-      <c r="M118" s="49"/>
-      <c r="N118" s="49"/>
-      <c r="O118" s="49"/>
-      <c r="P118" s="49"/>
-      <c r="Q118" s="50"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="54"/>
+      <c r="N118" s="54"/>
+      <c r="O118" s="54"/>
+      <c r="P118" s="54"/>
+      <c r="Q118" s="55"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A119" s="51"/>
-      <c r="B119" s="52"/>
+      <c r="A119" s="48"/>
+      <c r="B119" s="49"/>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
-      <c r="K119" s="49"/>
-      <c r="L119" s="49"/>
-      <c r="M119" s="49"/>
-      <c r="N119" s="49"/>
-      <c r="O119" s="49"/>
-      <c r="P119" s="49"/>
-      <c r="Q119" s="50"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="54"/>
+      <c r="O119" s="54"/>
+      <c r="P119" s="54"/>
+      <c r="Q119" s="55"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A120" s="51"/>
-      <c r="B120" s="52"/>
+      <c r="A120" s="48"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="49"/>
-      <c r="H120" s="49"/>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
-      <c r="K120" s="49"/>
-      <c r="L120" s="49"/>
-      <c r="M120" s="49"/>
-      <c r="N120" s="49"/>
-      <c r="O120" s="49"/>
-      <c r="P120" s="49"/>
-      <c r="Q120" s="50"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="54"/>
+      <c r="M120" s="54"/>
+      <c r="N120" s="54"/>
+      <c r="O120" s="54"/>
+      <c r="P120" s="54"/>
+      <c r="Q120" s="55"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A121" s="51"/>
-      <c r="B121" s="52"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="49"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="49"/>
-      <c r="I121" s="49"/>
-      <c r="J121" s="49"/>
-      <c r="K121" s="49"/>
-      <c r="L121" s="49"/>
-      <c r="M121" s="49"/>
-      <c r="N121" s="49"/>
-      <c r="O121" s="49"/>
-      <c r="P121" s="49"/>
-      <c r="Q121" s="50"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="54"/>
+      <c r="P121" s="54"/>
+      <c r="Q121" s="55"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A122" s="51"/>
-      <c r="B122" s="52"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="49"/>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
-      <c r="K122" s="49"/>
-      <c r="L122" s="49"/>
-      <c r="M122" s="49"/>
-      <c r="N122" s="49"/>
-      <c r="O122" s="49"/>
-      <c r="P122" s="49"/>
-      <c r="Q122" s="50"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="54"/>
+      <c r="O122" s="54"/>
+      <c r="P122" s="54"/>
+      <c r="Q122" s="55"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A123" s="51"/>
-      <c r="B123" s="52"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49"/>
-      <c r="J123" s="49"/>
-      <c r="K123" s="49"/>
-      <c r="L123" s="49"/>
-      <c r="M123" s="49"/>
-      <c r="N123" s="49"/>
-      <c r="O123" s="49"/>
-      <c r="P123" s="49"/>
-      <c r="Q123" s="50"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
+      <c r="P123" s="54"/>
+      <c r="Q123" s="55"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A124" s="51"/>
-      <c r="B124" s="52"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
-      <c r="J124" s="49"/>
-      <c r="K124" s="49"/>
-      <c r="L124" s="49"/>
-      <c r="M124" s="49"/>
-      <c r="N124" s="49"/>
-      <c r="O124" s="49"/>
-      <c r="P124" s="49"/>
-      <c r="Q124" s="50"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="54"/>
+      <c r="M124" s="54"/>
+      <c r="N124" s="54"/>
+      <c r="O124" s="54"/>
+      <c r="P124" s="54"/>
+      <c r="Q124" s="55"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A125" s="51"/>
-      <c r="B125" s="52"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="49"/>
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="49"/>
-      <c r="K125" s="49"/>
-      <c r="L125" s="49"/>
-      <c r="M125" s="49"/>
-      <c r="N125" s="49"/>
-      <c r="O125" s="49"/>
-      <c r="P125" s="49"/>
-      <c r="Q125" s="50"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="54"/>
+      <c r="M125" s="54"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="54"/>
+      <c r="P125" s="54"/>
+      <c r="Q125" s="55"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A126" s="51"/>
-      <c r="B126" s="52"/>
+      <c r="A126" s="48"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
-      <c r="H126" s="49"/>
-      <c r="I126" s="49"/>
-      <c r="J126" s="49"/>
-      <c r="K126" s="49"/>
-      <c r="L126" s="49"/>
-      <c r="M126" s="49"/>
-      <c r="N126" s="49"/>
-      <c r="O126" s="49"/>
-      <c r="P126" s="49"/>
-      <c r="Q126" s="50"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
+      <c r="M126" s="54"/>
+      <c r="N126" s="54"/>
+      <c r="O126" s="54"/>
+      <c r="P126" s="54"/>
+      <c r="Q126" s="55"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A127" s="51"/>
-      <c r="B127" s="52"/>
+      <c r="A127" s="48"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="49"/>
-      <c r="I127" s="49"/>
-      <c r="J127" s="49"/>
-      <c r="K127" s="49"/>
-      <c r="L127" s="49"/>
-      <c r="M127" s="49"/>
-      <c r="N127" s="49"/>
-      <c r="O127" s="49"/>
-      <c r="P127" s="49"/>
-      <c r="Q127" s="50"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
+      <c r="M127" s="54"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
+      <c r="P127" s="54"/>
+      <c r="Q127" s="55"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A128" s="51"/>
-      <c r="B128" s="52"/>
+      <c r="A128" s="48"/>
+      <c r="B128" s="49"/>
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="49"/>
-      <c r="I128" s="49"/>
-      <c r="J128" s="49"/>
-      <c r="K128" s="49"/>
-      <c r="L128" s="49"/>
-      <c r="M128" s="49"/>
-      <c r="N128" s="49"/>
-      <c r="O128" s="49"/>
-      <c r="P128" s="49"/>
-      <c r="Q128" s="50"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="54"/>
+      <c r="M128" s="54"/>
+      <c r="N128" s="54"/>
+      <c r="O128" s="54"/>
+      <c r="P128" s="54"/>
+      <c r="Q128" s="55"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A129" s="51"/>
-      <c r="B129" s="52"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="49"/>
-      <c r="I129" s="49"/>
-      <c r="J129" s="49"/>
-      <c r="K129" s="49"/>
-      <c r="L129" s="49"/>
-      <c r="M129" s="49"/>
-      <c r="N129" s="49"/>
-      <c r="O129" s="49"/>
-      <c r="P129" s="49"/>
-      <c r="Q129" s="50"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="54"/>
+      <c r="M129" s="54"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="54"/>
+      <c r="P129" s="54"/>
+      <c r="Q129" s="55"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A130" s="51"/>
-      <c r="B130" s="52"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="49"/>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
-      <c r="I130" s="49"/>
-      <c r="J130" s="49"/>
-      <c r="K130" s="49"/>
-      <c r="L130" s="49"/>
-      <c r="M130" s="49"/>
-      <c r="N130" s="49"/>
-      <c r="O130" s="49"/>
-      <c r="P130" s="49"/>
-      <c r="Q130" s="50"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="54"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="54"/>
+      <c r="L130" s="54"/>
+      <c r="M130" s="54"/>
+      <c r="N130" s="54"/>
+      <c r="O130" s="54"/>
+      <c r="P130" s="54"/>
+      <c r="Q130" s="55"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A131" s="51"/>
-      <c r="B131" s="52"/>
+      <c r="A131" s="48"/>
+      <c r="B131" s="49"/>
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="49"/>
-      <c r="G131" s="49"/>
-      <c r="H131" s="49"/>
-      <c r="I131" s="49"/>
-      <c r="J131" s="49"/>
-      <c r="K131" s="49"/>
-      <c r="L131" s="49"/>
-      <c r="M131" s="49"/>
-      <c r="N131" s="49"/>
-      <c r="O131" s="49"/>
-      <c r="P131" s="49"/>
-      <c r="Q131" s="50"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="54"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="54"/>
+      <c r="P131" s="54"/>
+      <c r="Q131" s="55"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A132" s="51"/>
-      <c r="B132" s="52"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="49"/>
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="49"/>
-      <c r="G132" s="49"/>
-      <c r="H132" s="49"/>
-      <c r="I132" s="49"/>
-      <c r="J132" s="49"/>
-      <c r="K132" s="49"/>
-      <c r="L132" s="49"/>
-      <c r="M132" s="49"/>
-      <c r="N132" s="49"/>
-      <c r="O132" s="49"/>
-      <c r="P132" s="49"/>
-      <c r="Q132" s="50"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="54"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="54"/>
+      <c r="P132" s="54"/>
+      <c r="Q132" s="55"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A133" s="51"/>
-      <c r="B133" s="52"/>
+      <c r="A133" s="48"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="49"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="49"/>
-      <c r="J133" s="49"/>
-      <c r="K133" s="49"/>
-      <c r="L133" s="49"/>
-      <c r="M133" s="49"/>
-      <c r="N133" s="49"/>
-      <c r="O133" s="49"/>
-      <c r="P133" s="49"/>
-      <c r="Q133" s="50"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="54"/>
+      <c r="Q133" s="55"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A134" s="51"/>
-      <c r="B134" s="52"/>
+      <c r="A134" s="48"/>
+      <c r="B134" s="49"/>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
-      <c r="J134" s="49"/>
-      <c r="K134" s="49"/>
-      <c r="L134" s="49"/>
-      <c r="M134" s="49"/>
-      <c r="N134" s="49"/>
-      <c r="O134" s="49"/>
-      <c r="P134" s="49"/>
-      <c r="Q134" s="50"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="54"/>
+      <c r="M134" s="54"/>
+      <c r="N134" s="54"/>
+      <c r="O134" s="54"/>
+      <c r="P134" s="54"/>
+      <c r="Q134" s="55"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A135" s="51"/>
-      <c r="B135" s="52"/>
+      <c r="A135" s="48"/>
+      <c r="B135" s="49"/>
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="49"/>
-      <c r="K135" s="49"/>
-      <c r="L135" s="49"/>
-      <c r="M135" s="49"/>
-      <c r="N135" s="49"/>
-      <c r="O135" s="49"/>
-      <c r="P135" s="49"/>
-      <c r="Q135" s="50"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="54"/>
+      <c r="J135" s="54"/>
+      <c r="K135" s="54"/>
+      <c r="L135" s="54"/>
+      <c r="M135" s="54"/>
+      <c r="N135" s="54"/>
+      <c r="O135" s="54"/>
+      <c r="P135" s="54"/>
+      <c r="Q135" s="55"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A136" s="51"/>
-      <c r="B136" s="52"/>
+      <c r="A136" s="48"/>
+      <c r="B136" s="49"/>
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
-      <c r="E136" s="48"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
-      <c r="K136" s="49"/>
-      <c r="L136" s="49"/>
-      <c r="M136" s="49"/>
-      <c r="N136" s="49"/>
-      <c r="O136" s="49"/>
-      <c r="P136" s="49"/>
-      <c r="Q136" s="50"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="54"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="54"/>
+      <c r="L136" s="54"/>
+      <c r="M136" s="54"/>
+      <c r="N136" s="54"/>
+      <c r="O136" s="54"/>
+      <c r="P136" s="54"/>
+      <c r="Q136" s="55"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A137" s="51"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="49"/>
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="49"/>
-      <c r="J137" s="49"/>
-      <c r="K137" s="49"/>
-      <c r="L137" s="49"/>
-      <c r="M137" s="49"/>
-      <c r="N137" s="49"/>
-      <c r="O137" s="49"/>
-      <c r="P137" s="49"/>
-      <c r="Q137" s="50"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="54"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="54"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="54"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="54"/>
+      <c r="P137" s="54"/>
+      <c r="Q137" s="55"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A138" s="51"/>
-      <c r="B138" s="52"/>
+      <c r="A138" s="48"/>
+      <c r="B138" s="49"/>
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="49"/>
-      <c r="J138" s="49"/>
-      <c r="K138" s="49"/>
-      <c r="L138" s="49"/>
-      <c r="M138" s="49"/>
-      <c r="N138" s="49"/>
-      <c r="O138" s="49"/>
-      <c r="P138" s="49"/>
-      <c r="Q138" s="50"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="54"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="54"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="54"/>
+      <c r="N138" s="54"/>
+      <c r="O138" s="54"/>
+      <c r="P138" s="54"/>
+      <c r="Q138" s="55"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A139" s="51"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="49"/>
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="49"/>
-      <c r="J139" s="49"/>
-      <c r="K139" s="49"/>
-      <c r="L139" s="49"/>
-      <c r="M139" s="49"/>
-      <c r="N139" s="49"/>
-      <c r="O139" s="49"/>
-      <c r="P139" s="49"/>
-      <c r="Q139" s="50"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="54"/>
+      <c r="G139" s="54"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="54"/>
+      <c r="J139" s="54"/>
+      <c r="K139" s="54"/>
+      <c r="L139" s="54"/>
+      <c r="M139" s="54"/>
+      <c r="N139" s="54"/>
+      <c r="O139" s="54"/>
+      <c r="P139" s="54"/>
+      <c r="Q139" s="55"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A140" s="51"/>
-      <c r="B140" s="52"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="49"/>
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="49"/>
-      <c r="H140" s="49"/>
-      <c r="I140" s="49"/>
-      <c r="J140" s="49"/>
-      <c r="K140" s="49"/>
-      <c r="L140" s="49"/>
-      <c r="M140" s="49"/>
-      <c r="N140" s="49"/>
-      <c r="O140" s="49"/>
-      <c r="P140" s="49"/>
-      <c r="Q140" s="50"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="54"/>
+      <c r="K140" s="54"/>
+      <c r="L140" s="54"/>
+      <c r="M140" s="54"/>
+      <c r="N140" s="54"/>
+      <c r="O140" s="54"/>
+      <c r="P140" s="54"/>
+      <c r="Q140" s="55"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A141" s="51"/>
-      <c r="B141" s="52"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49"/>
-      <c r="H141" s="49"/>
-      <c r="I141" s="49"/>
-      <c r="J141" s="49"/>
-      <c r="K141" s="49"/>
-      <c r="L141" s="49"/>
-      <c r="M141" s="49"/>
-      <c r="N141" s="49"/>
-      <c r="O141" s="49"/>
-      <c r="P141" s="49"/>
-      <c r="Q141" s="50"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="54"/>
+      <c r="H141" s="54"/>
+      <c r="I141" s="54"/>
+      <c r="J141" s="54"/>
+      <c r="K141" s="54"/>
+      <c r="L141" s="54"/>
+      <c r="M141" s="54"/>
+      <c r="N141" s="54"/>
+      <c r="O141" s="54"/>
+      <c r="P141" s="54"/>
+      <c r="Q141" s="55"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A142" s="51"/>
-      <c r="B142" s="52"/>
+      <c r="A142" s="48"/>
+      <c r="B142" s="49"/>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="49"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="49"/>
-      <c r="J142" s="49"/>
-      <c r="K142" s="49"/>
-      <c r="L142" s="49"/>
-      <c r="M142" s="49"/>
-      <c r="N142" s="49"/>
-      <c r="O142" s="49"/>
-      <c r="P142" s="49"/>
-      <c r="Q142" s="50"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="54"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="54"/>
+      <c r="J142" s="54"/>
+      <c r="K142" s="54"/>
+      <c r="L142" s="54"/>
+      <c r="M142" s="54"/>
+      <c r="N142" s="54"/>
+      <c r="O142" s="54"/>
+      <c r="P142" s="54"/>
+      <c r="Q142" s="55"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A143" s="51"/>
-      <c r="B143" s="52"/>
+      <c r="A143" s="48"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="49"/>
-      <c r="K143" s="49"/>
-      <c r="L143" s="49"/>
-      <c r="M143" s="49"/>
-      <c r="N143" s="49"/>
-      <c r="O143" s="49"/>
-      <c r="P143" s="49"/>
-      <c r="Q143" s="50"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="54"/>
+      <c r="H143" s="54"/>
+      <c r="I143" s="54"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="54"/>
+      <c r="L143" s="54"/>
+      <c r="M143" s="54"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="54"/>
+      <c r="P143" s="54"/>
+      <c r="Q143" s="55"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A144" s="51"/>
-      <c r="B144" s="52"/>
+      <c r="A144" s="48"/>
+      <c r="B144" s="49"/>
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="49"/>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="49"/>
-      <c r="J144" s="49"/>
-      <c r="K144" s="49"/>
-      <c r="L144" s="49"/>
-      <c r="M144" s="49"/>
-      <c r="N144" s="49"/>
-      <c r="O144" s="49"/>
-      <c r="P144" s="49"/>
-      <c r="Q144" s="50"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="54"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="54"/>
+      <c r="L144" s="54"/>
+      <c r="M144" s="54"/>
+      <c r="N144" s="54"/>
+      <c r="O144" s="54"/>
+      <c r="P144" s="54"/>
+      <c r="Q144" s="55"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A145" s="51"/>
-      <c r="B145" s="52"/>
+      <c r="A145" s="48"/>
+      <c r="B145" s="49"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
-      <c r="I145" s="49"/>
-      <c r="J145" s="49"/>
-      <c r="K145" s="49"/>
-      <c r="L145" s="49"/>
-      <c r="M145" s="49"/>
-      <c r="N145" s="49"/>
-      <c r="O145" s="49"/>
-      <c r="P145" s="49"/>
-      <c r="Q145" s="50"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="54"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54"/>
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="54"/>
+      <c r="Q145" s="55"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A146" s="51"/>
-      <c r="B146" s="52"/>
+      <c r="A146" s="48"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="49"/>
-      <c r="H146" s="49"/>
-      <c r="I146" s="49"/>
-      <c r="J146" s="49"/>
-      <c r="K146" s="49"/>
-      <c r="L146" s="49"/>
-      <c r="M146" s="49"/>
-      <c r="N146" s="49"/>
-      <c r="O146" s="49"/>
-      <c r="P146" s="49"/>
-      <c r="Q146" s="50"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="54"/>
+      <c r="M146" s="54"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="54"/>
+      <c r="P146" s="54"/>
+      <c r="Q146" s="55"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A147" s="51"/>
-      <c r="B147" s="52"/>
+      <c r="A147" s="48"/>
+      <c r="B147" s="49"/>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49"/>
-      <c r="H147" s="49"/>
-      <c r="I147" s="49"/>
-      <c r="J147" s="49"/>
-      <c r="K147" s="49"/>
-      <c r="L147" s="49"/>
-      <c r="M147" s="49"/>
-      <c r="N147" s="49"/>
-      <c r="O147" s="49"/>
-      <c r="P147" s="49"/>
-      <c r="Q147" s="50"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="54"/>
+      <c r="N147" s="54"/>
+      <c r="O147" s="54"/>
+      <c r="P147" s="54"/>
+      <c r="Q147" s="55"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A148" s="51"/>
-      <c r="B148" s="52"/>
+      <c r="A148" s="48"/>
+      <c r="B148" s="49"/>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="49"/>
-      <c r="I148" s="49"/>
-      <c r="J148" s="49"/>
-      <c r="K148" s="49"/>
-      <c r="L148" s="49"/>
-      <c r="M148" s="49"/>
-      <c r="N148" s="49"/>
-      <c r="O148" s="49"/>
-      <c r="P148" s="49"/>
-      <c r="Q148" s="50"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
+      <c r="P148" s="54"/>
+      <c r="Q148" s="55"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A149" s="51"/>
-      <c r="B149" s="52"/>
+      <c r="A149" s="48"/>
+      <c r="B149" s="49"/>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="49"/>
-      <c r="L149" s="49"/>
-      <c r="M149" s="49"/>
-      <c r="N149" s="49"/>
-      <c r="O149" s="49"/>
-      <c r="P149" s="49"/>
-      <c r="Q149" s="50"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="54"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
+      <c r="P149" s="54"/>
+      <c r="Q149" s="55"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A150" s="49"/>
-      <c r="B150" s="50"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="55"/>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="49"/>
-      <c r="H150" s="49"/>
-      <c r="I150" s="49"/>
-      <c r="J150" s="49"/>
-      <c r="K150" s="49"/>
-      <c r="L150" s="49"/>
-      <c r="M150" s="49"/>
-      <c r="N150" s="49"/>
-      <c r="O150" s="49"/>
-      <c r="P150" s="49"/>
-      <c r="Q150" s="50"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="54"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="54"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
+      <c r="P150" s="54"/>
+      <c r="Q150" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="E145:Q145"/>
+    <mergeCell ref="E146:Q146"/>
+    <mergeCell ref="E147:Q147"/>
+    <mergeCell ref="E148:Q148"/>
+    <mergeCell ref="E149:Q149"/>
+    <mergeCell ref="E150:Q150"/>
+    <mergeCell ref="E139:Q139"/>
+    <mergeCell ref="E140:Q140"/>
+    <mergeCell ref="E141:Q141"/>
+    <mergeCell ref="E142:Q142"/>
+    <mergeCell ref="E143:Q143"/>
+    <mergeCell ref="E144:Q144"/>
+    <mergeCell ref="E133:Q133"/>
+    <mergeCell ref="E134:Q134"/>
+    <mergeCell ref="E135:Q135"/>
+    <mergeCell ref="E136:Q136"/>
+    <mergeCell ref="E137:Q137"/>
+    <mergeCell ref="E138:Q138"/>
+    <mergeCell ref="E127:Q127"/>
+    <mergeCell ref="E128:Q128"/>
+    <mergeCell ref="E129:Q129"/>
+    <mergeCell ref="E130:Q130"/>
+    <mergeCell ref="E131:Q131"/>
+    <mergeCell ref="E132:Q132"/>
+    <mergeCell ref="E121:Q121"/>
+    <mergeCell ref="E122:Q122"/>
+    <mergeCell ref="E123:Q123"/>
+    <mergeCell ref="E124:Q124"/>
+    <mergeCell ref="E125:Q125"/>
+    <mergeCell ref="E126:Q126"/>
+    <mergeCell ref="E115:Q115"/>
+    <mergeCell ref="E116:Q116"/>
+    <mergeCell ref="E117:Q117"/>
+    <mergeCell ref="E118:Q118"/>
+    <mergeCell ref="E119:Q119"/>
+    <mergeCell ref="E120:Q120"/>
+    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E111:Q111"/>
+    <mergeCell ref="E112:Q112"/>
+    <mergeCell ref="E113:Q113"/>
+    <mergeCell ref="E114:Q114"/>
+    <mergeCell ref="E103:Q103"/>
+    <mergeCell ref="E104:Q104"/>
+    <mergeCell ref="E105:Q105"/>
+    <mergeCell ref="E106:Q106"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E97:Q97"/>
+    <mergeCell ref="E98:Q98"/>
+    <mergeCell ref="E99:Q99"/>
+    <mergeCell ref="E100:Q100"/>
+    <mergeCell ref="E101:Q101"/>
+    <mergeCell ref="E102:Q102"/>
+    <mergeCell ref="E91:Q91"/>
+    <mergeCell ref="E92:Q92"/>
+    <mergeCell ref="E93:Q93"/>
+    <mergeCell ref="E94:Q94"/>
+    <mergeCell ref="E95:Q95"/>
+    <mergeCell ref="E96:Q96"/>
+    <mergeCell ref="E85:Q85"/>
+    <mergeCell ref="E86:Q86"/>
+    <mergeCell ref="E87:Q87"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="E89:Q89"/>
+    <mergeCell ref="E90:Q90"/>
+    <mergeCell ref="E79:Q79"/>
+    <mergeCell ref="E80:Q80"/>
+    <mergeCell ref="E81:Q81"/>
+    <mergeCell ref="E82:Q82"/>
+    <mergeCell ref="E83:Q83"/>
+    <mergeCell ref="E84:Q84"/>
+    <mergeCell ref="E73:Q73"/>
+    <mergeCell ref="E74:Q74"/>
+    <mergeCell ref="E75:Q75"/>
+    <mergeCell ref="E76:Q76"/>
+    <mergeCell ref="E77:Q77"/>
+    <mergeCell ref="E78:Q78"/>
+    <mergeCell ref="E67:Q67"/>
+    <mergeCell ref="E68:Q68"/>
+    <mergeCell ref="E69:Q69"/>
+    <mergeCell ref="E70:Q70"/>
+    <mergeCell ref="E71:Q71"/>
+    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="E61:Q61"/>
+    <mergeCell ref="E62:Q62"/>
+    <mergeCell ref="E63:Q63"/>
+    <mergeCell ref="E64:Q64"/>
+    <mergeCell ref="E65:Q65"/>
+    <mergeCell ref="E66:Q66"/>
+    <mergeCell ref="E55:Q55"/>
+    <mergeCell ref="E56:Q56"/>
+    <mergeCell ref="E57:Q57"/>
+    <mergeCell ref="E58:Q58"/>
+    <mergeCell ref="E59:Q59"/>
+    <mergeCell ref="E60:Q60"/>
+    <mergeCell ref="E49:Q49"/>
+    <mergeCell ref="E50:Q50"/>
+    <mergeCell ref="E51:Q51"/>
+    <mergeCell ref="E52:Q52"/>
+    <mergeCell ref="E53:Q53"/>
+    <mergeCell ref="E54:Q54"/>
+    <mergeCell ref="E43:Q43"/>
+    <mergeCell ref="E44:Q44"/>
+    <mergeCell ref="E45:Q45"/>
+    <mergeCell ref="E46:Q46"/>
+    <mergeCell ref="E47:Q47"/>
+    <mergeCell ref="E48:Q48"/>
+    <mergeCell ref="E37:Q37"/>
+    <mergeCell ref="E38:Q38"/>
+    <mergeCell ref="E39:Q39"/>
+    <mergeCell ref="E40:Q40"/>
+    <mergeCell ref="E41:Q41"/>
+    <mergeCell ref="E42:Q42"/>
+    <mergeCell ref="E31:Q31"/>
+    <mergeCell ref="E32:Q32"/>
+    <mergeCell ref="E33:Q33"/>
+    <mergeCell ref="E34:Q34"/>
+    <mergeCell ref="E35:Q35"/>
+    <mergeCell ref="E36:Q36"/>
+    <mergeCell ref="E25:Q25"/>
+    <mergeCell ref="E26:Q26"/>
+    <mergeCell ref="E27:Q27"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="E29:Q29"/>
+    <mergeCell ref="E30:Q30"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="E23:Q23"/>
+    <mergeCell ref="E24:Q24"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E12:Q12"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="A147:B147"/>
     <mergeCell ref="A148:B148"/>
@@ -16144,150 +16226,136 @@
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E25:Q25"/>
-    <mergeCell ref="E26:Q26"/>
-    <mergeCell ref="E27:Q27"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="E29:Q29"/>
-    <mergeCell ref="E30:Q30"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="E23:Q23"/>
-    <mergeCell ref="E24:Q24"/>
-    <mergeCell ref="E37:Q37"/>
-    <mergeCell ref="E38:Q38"/>
-    <mergeCell ref="E39:Q39"/>
-    <mergeCell ref="E40:Q40"/>
-    <mergeCell ref="E41:Q41"/>
-    <mergeCell ref="E42:Q42"/>
-    <mergeCell ref="E31:Q31"/>
-    <mergeCell ref="E32:Q32"/>
-    <mergeCell ref="E33:Q33"/>
-    <mergeCell ref="E34:Q34"/>
-    <mergeCell ref="E35:Q35"/>
-    <mergeCell ref="E36:Q36"/>
-    <mergeCell ref="E49:Q49"/>
-    <mergeCell ref="E50:Q50"/>
-    <mergeCell ref="E51:Q51"/>
-    <mergeCell ref="E52:Q52"/>
-    <mergeCell ref="E53:Q53"/>
-    <mergeCell ref="E54:Q54"/>
-    <mergeCell ref="E43:Q43"/>
-    <mergeCell ref="E44:Q44"/>
-    <mergeCell ref="E45:Q45"/>
-    <mergeCell ref="E46:Q46"/>
-    <mergeCell ref="E47:Q47"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="E61:Q61"/>
-    <mergeCell ref="E62:Q62"/>
-    <mergeCell ref="E63:Q63"/>
-    <mergeCell ref="E64:Q64"/>
-    <mergeCell ref="E65:Q65"/>
-    <mergeCell ref="E66:Q66"/>
-    <mergeCell ref="E55:Q55"/>
-    <mergeCell ref="E56:Q56"/>
-    <mergeCell ref="E57:Q57"/>
-    <mergeCell ref="E58:Q58"/>
-    <mergeCell ref="E59:Q59"/>
-    <mergeCell ref="E60:Q60"/>
-    <mergeCell ref="E73:Q73"/>
-    <mergeCell ref="E74:Q74"/>
-    <mergeCell ref="E75:Q75"/>
-    <mergeCell ref="E76:Q76"/>
-    <mergeCell ref="E77:Q77"/>
-    <mergeCell ref="E78:Q78"/>
-    <mergeCell ref="E67:Q67"/>
-    <mergeCell ref="E68:Q68"/>
-    <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="E70:Q70"/>
-    <mergeCell ref="E71:Q71"/>
-    <mergeCell ref="E72:Q72"/>
-    <mergeCell ref="E85:Q85"/>
-    <mergeCell ref="E86:Q86"/>
-    <mergeCell ref="E87:Q87"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="E89:Q89"/>
-    <mergeCell ref="E90:Q90"/>
-    <mergeCell ref="E79:Q79"/>
-    <mergeCell ref="E80:Q80"/>
-    <mergeCell ref="E81:Q81"/>
-    <mergeCell ref="E82:Q82"/>
-    <mergeCell ref="E83:Q83"/>
-    <mergeCell ref="E84:Q84"/>
-    <mergeCell ref="E97:Q97"/>
-    <mergeCell ref="E98:Q98"/>
-    <mergeCell ref="E99:Q99"/>
-    <mergeCell ref="E100:Q100"/>
-    <mergeCell ref="E101:Q101"/>
-    <mergeCell ref="E102:Q102"/>
-    <mergeCell ref="E91:Q91"/>
-    <mergeCell ref="E92:Q92"/>
-    <mergeCell ref="E93:Q93"/>
-    <mergeCell ref="E94:Q94"/>
-    <mergeCell ref="E95:Q95"/>
-    <mergeCell ref="E96:Q96"/>
-    <mergeCell ref="E109:Q109"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E111:Q111"/>
-    <mergeCell ref="E112:Q112"/>
-    <mergeCell ref="E113:Q113"/>
-    <mergeCell ref="E114:Q114"/>
-    <mergeCell ref="E103:Q103"/>
-    <mergeCell ref="E104:Q104"/>
-    <mergeCell ref="E105:Q105"/>
-    <mergeCell ref="E106:Q106"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E121:Q121"/>
-    <mergeCell ref="E122:Q122"/>
-    <mergeCell ref="E123:Q123"/>
-    <mergeCell ref="E124:Q124"/>
-    <mergeCell ref="E125:Q125"/>
-    <mergeCell ref="E126:Q126"/>
-    <mergeCell ref="E115:Q115"/>
-    <mergeCell ref="E116:Q116"/>
-    <mergeCell ref="E117:Q117"/>
-    <mergeCell ref="E118:Q118"/>
-    <mergeCell ref="E119:Q119"/>
-    <mergeCell ref="E120:Q120"/>
-    <mergeCell ref="E133:Q133"/>
-    <mergeCell ref="E134:Q134"/>
-    <mergeCell ref="E135:Q135"/>
-    <mergeCell ref="E136:Q136"/>
-    <mergeCell ref="E137:Q137"/>
-    <mergeCell ref="E138:Q138"/>
-    <mergeCell ref="E127:Q127"/>
-    <mergeCell ref="E128:Q128"/>
-    <mergeCell ref="E129:Q129"/>
-    <mergeCell ref="E130:Q130"/>
-    <mergeCell ref="E131:Q131"/>
-    <mergeCell ref="E132:Q132"/>
-    <mergeCell ref="E145:Q145"/>
-    <mergeCell ref="E146:Q146"/>
-    <mergeCell ref="E147:Q147"/>
-    <mergeCell ref="E148:Q148"/>
-    <mergeCell ref="E149:Q149"/>
-    <mergeCell ref="E150:Q150"/>
-    <mergeCell ref="E139:Q139"/>
-    <mergeCell ref="E140:Q140"/>
-    <mergeCell ref="E141:Q141"/>
-    <mergeCell ref="E142:Q142"/>
-    <mergeCell ref="E143:Q143"/>
-    <mergeCell ref="E144:Q144"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">

--- a/heliosphere仕様関連/heliosphereガントチャート ver2.xlsx
+++ b/heliosphere仕様関連/heliosphereガントチャート ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -426,13 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エネミー草案</t>
-    <rPh sb="4" eb="6">
-      <t>ソウアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル草案</t>
     <rPh sb="4" eb="6">
       <t>ソウアン</t>
@@ -597,10 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エネミーデザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エネミー動作処理関連</t>
     <rPh sb="4" eb="6">
       <t>ドウサ</t>
@@ -973,6 +962,17 @@
     <rPh sb="15" eb="16">
       <t>ナカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック草案</t>
+    <rPh sb="4" eb="6">
+      <t>ソウアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミックデザイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1653,22 +1653,7 @@
     <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1677,7 +1662,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,7 +1686,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2448,9 +2448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV125"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+      <selection pane="topRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3412,7 +3412,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="24">
         <v>43551</v>
@@ -3504,7 +3504,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="24">
         <v>43560</v>
@@ -3596,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="24">
         <v>43571</v>
@@ -3682,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="24">
         <v>43605</v>
@@ -3768,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="24">
         <v>43599</v>
@@ -3854,7 +3854,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="24">
         <v>43570</v>
@@ -4116,7 +4116,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="24">
         <v>43570</v>
@@ -4206,7 +4206,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="24">
         <v>43586</v>
@@ -4470,7 +4470,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="24">
         <v>43558</v>
@@ -4644,7 +4644,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="24">
         <v>43570</v>
@@ -4734,7 +4734,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="24">
         <v>43586</v>
@@ -5082,7 +5082,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="24">
         <v>43592</v>
@@ -5170,7 +5170,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="24">
         <v>43592</v>
@@ -5258,7 +5258,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="24">
         <v>43570</v>
@@ -5348,7 +5348,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -5518,7 +5518,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="24">
         <v>43558</v>
@@ -5608,7 +5608,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="24">
         <v>43561</v>
@@ -5700,7 +5700,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="24">
         <v>43570</v>
@@ -5792,7 +5792,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="24">
         <v>43570</v>
@@ -5884,7 +5884,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="24">
         <v>43570</v>
@@ -5972,7 +5972,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="24">
         <v>43570</v>
@@ -6062,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="24">
         <v>43570</v>
@@ -6152,7 +6152,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="24">
         <v>43558</v>
@@ -6422,7 +6422,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="24">
         <v>43558</v>
@@ -6602,7 +6602,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C47" s="24">
         <v>43558</v>
@@ -6692,7 +6692,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C48" s="24">
         <v>43558</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="24">
         <v>43566</v>
@@ -6870,7 +6870,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="24">
         <v>43570</v>
@@ -6958,7 +6958,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="24">
         <v>43566</v>
@@ -7138,7 +7138,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="24">
         <v>43558</v>
@@ -7224,7 +7224,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="24">
         <v>43566</v>
@@ -7316,7 +7316,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="24">
         <v>43570</v>
@@ -7404,7 +7404,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="24">
         <v>43566</v>
@@ -7496,7 +7496,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="24">
         <v>43586</v>
@@ -7584,7 +7584,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="24">
         <v>43596</v>
@@ -13158,3050 +13158,3036 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B1" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="27" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="50"/>
+      <c r="A2" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="54"/>
       <c r="C2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="51">
+      <c r="A3" s="60">
         <v>43570</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="30" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
+        <v>92</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="53">
+      <c r="A4" s="59">
         <v>43570</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="53">
+      <c r="A5" s="59">
         <v>43577</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="53">
+      <c r="A6" s="59">
         <v>43581</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="53">
+      <c r="A7" s="59">
         <v>43598</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="53">
+      <c r="A8" s="59">
         <v>43598</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="50"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="50"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="50"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="50"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="50"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="55"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="55"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="50"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="55"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="55"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="55"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="50"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="50"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="55"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="50"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="55"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="50"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="55"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="55"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="50"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="55"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="50"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="55"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="50"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="55"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="50"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="55"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="50"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="55"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="50"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="55"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="50"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="55"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="50"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="55"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="50"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="55"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="50"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="55"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="50"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="55"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="50"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="55"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="50"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="55"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A63" s="48"/>
-      <c r="B63" s="49"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="55"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="50"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="55"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="50"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="55"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="50"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A66" s="48"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="55"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="50"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="55"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="50"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A68" s="48"/>
-      <c r="B68" s="49"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="55"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="50"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A69" s="48"/>
-      <c r="B69" s="49"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="55"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="50"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A70" s="48"/>
-      <c r="B70" s="49"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="55"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="50"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A71" s="48"/>
-      <c r="B71" s="49"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="55"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="50"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="55"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="50"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A73" s="48"/>
-      <c r="B73" s="49"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="55"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="50"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A74" s="48"/>
-      <c r="B74" s="49"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="55"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="50"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A75" s="48"/>
-      <c r="B75" s="49"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="55"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="50"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A76" s="48"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="55"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="50"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="55"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="50"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A78" s="48"/>
-      <c r="B78" s="49"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="55"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="50"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="55"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="50"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A80" s="48"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="55"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="50"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A81" s="48"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="55"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="50"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A82" s="48"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="55"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="50"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A83" s="48"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="55"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="50"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A84" s="48"/>
-      <c r="B84" s="49"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="55"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="50"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A85" s="48"/>
-      <c r="B85" s="49"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="55"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="50"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A86" s="48"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="55"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="50"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A87" s="48"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="31"/>
       <c r="D87" s="31"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="55"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="50"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A88" s="48"/>
-      <c r="B88" s="49"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="54"/>
-      <c r="Q88" s="55"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="50"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A89" s="48"/>
-      <c r="B89" s="49"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="54"/>
-      <c r="O89" s="54"/>
-      <c r="P89" s="54"/>
-      <c r="Q89" s="55"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="50"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A90" s="48"/>
-      <c r="B90" s="49"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="54"/>
-      <c r="P90" s="54"/>
-      <c r="Q90" s="55"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="50"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A91" s="48"/>
-      <c r="B91" s="49"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
-      <c r="Q91" s="55"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="50"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A92" s="48"/>
-      <c r="B92" s="49"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="54"/>
-      <c r="Q92" s="55"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="50"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
-      <c r="O93" s="54"/>
-      <c r="P93" s="54"/>
-      <c r="Q93" s="55"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="50"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A94" s="48"/>
-      <c r="B94" s="49"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="54"/>
-      <c r="P94" s="54"/>
-      <c r="Q94" s="55"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="50"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A95" s="48"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="31"/>
       <c r="D95" s="31"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="55"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="50"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A96" s="48"/>
-      <c r="B96" s="49"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
-      <c r="Q96" s="55"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="50"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A97" s="48"/>
-      <c r="B97" s="49"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="31"/>
       <c r="D97" s="31"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="54"/>
-      <c r="Q97" s="55"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="50"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A98" s="48"/>
-      <c r="B98" s="49"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="31"/>
       <c r="D98" s="31"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="55"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="50"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A99" s="48"/>
-      <c r="B99" s="49"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="31"/>
       <c r="D99" s="31"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="55"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="50"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A100" s="48"/>
-      <c r="B100" s="49"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="55"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="50"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A101" s="48"/>
-      <c r="B101" s="49"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
-      <c r="Q101" s="55"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="50"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A102" s="48"/>
-      <c r="B102" s="49"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="55"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="50"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A103" s="48"/>
-      <c r="B103" s="49"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="55"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="50"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A104" s="48"/>
-      <c r="B104" s="49"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
-      <c r="Q104" s="55"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="50"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A105" s="48"/>
-      <c r="B105" s="49"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="55"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="50"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A106" s="48"/>
-      <c r="B106" s="49"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
-      <c r="Q106" s="55"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="50"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A107" s="48"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
-      <c r="Q107" s="55"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="49"/>
+      <c r="O107" s="49"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="50"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A108" s="48"/>
-      <c r="B108" s="49"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
-      <c r="Q108" s="55"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="50"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A109" s="48"/>
-      <c r="B109" s="49"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="54"/>
-      <c r="P109" s="54"/>
-      <c r="Q109" s="55"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="50"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A110" s="48"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="51"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="54"/>
-      <c r="P110" s="54"/>
-      <c r="Q110" s="55"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="50"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A111" s="48"/>
-      <c r="B111" s="49"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="55"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="50"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A112" s="48"/>
-      <c r="B112" s="49"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="54"/>
-      <c r="O112" s="54"/>
-      <c r="P112" s="54"/>
-      <c r="Q112" s="55"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="50"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A113" s="48"/>
-      <c r="B113" s="49"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="54"/>
-      <c r="O113" s="54"/>
-      <c r="P113" s="54"/>
-      <c r="Q113" s="55"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="50"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A114" s="48"/>
-      <c r="B114" s="49"/>
+      <c r="A114" s="51"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="54"/>
-      <c r="O114" s="54"/>
-      <c r="P114" s="54"/>
-      <c r="Q114" s="55"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="50"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A115" s="48"/>
-      <c r="B115" s="49"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="54"/>
-      <c r="O115" s="54"/>
-      <c r="P115" s="54"/>
-      <c r="Q115" s="55"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="50"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A116" s="48"/>
-      <c r="B116" s="49"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="31"/>
       <c r="D116" s="31"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="54"/>
-      <c r="P116" s="54"/>
-      <c r="Q116" s="55"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="50"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A117" s="48"/>
-      <c r="B117" s="49"/>
+      <c r="A117" s="51"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="31"/>
       <c r="D117" s="31"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="54"/>
-      <c r="O117" s="54"/>
-      <c r="P117" s="54"/>
-      <c r="Q117" s="55"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+      <c r="O117" s="49"/>
+      <c r="P117" s="49"/>
+      <c r="Q117" s="50"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A118" s="48"/>
-      <c r="B118" s="49"/>
+      <c r="A118" s="51"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="54"/>
-      <c r="P118" s="54"/>
-      <c r="Q118" s="55"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+      <c r="O118" s="49"/>
+      <c r="P118" s="49"/>
+      <c r="Q118" s="50"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A119" s="48"/>
-      <c r="B119" s="49"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
-      <c r="O119" s="54"/>
-      <c r="P119" s="54"/>
-      <c r="Q119" s="55"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="49"/>
+      <c r="O119" s="49"/>
+      <c r="P119" s="49"/>
+      <c r="Q119" s="50"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A120" s="48"/>
-      <c r="B120" s="49"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="54"/>
-      <c r="O120" s="54"/>
-      <c r="P120" s="54"/>
-      <c r="Q120" s="55"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="49"/>
+      <c r="L120" s="49"/>
+      <c r="M120" s="49"/>
+      <c r="N120" s="49"/>
+      <c r="O120" s="49"/>
+      <c r="P120" s="49"/>
+      <c r="Q120" s="50"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A121" s="48"/>
-      <c r="B121" s="49"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="54"/>
-      <c r="O121" s="54"/>
-      <c r="P121" s="54"/>
-      <c r="Q121" s="55"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="49"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="49"/>
+      <c r="K121" s="49"/>
+      <c r="L121" s="49"/>
+      <c r="M121" s="49"/>
+      <c r="N121" s="49"/>
+      <c r="O121" s="49"/>
+      <c r="P121" s="49"/>
+      <c r="Q121" s="50"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A122" s="48"/>
-      <c r="B122" s="49"/>
+      <c r="A122" s="51"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="54"/>
-      <c r="O122" s="54"/>
-      <c r="P122" s="54"/>
-      <c r="Q122" s="55"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49"/>
+      <c r="K122" s="49"/>
+      <c r="L122" s="49"/>
+      <c r="M122" s="49"/>
+      <c r="N122" s="49"/>
+      <c r="O122" s="49"/>
+      <c r="P122" s="49"/>
+      <c r="Q122" s="50"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A123" s="48"/>
-      <c r="B123" s="49"/>
+      <c r="A123" s="51"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
-      <c r="E123" s="61"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="54"/>
-      <c r="P123" s="54"/>
-      <c r="Q123" s="55"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="49"/>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49"/>
+      <c r="K123" s="49"/>
+      <c r="L123" s="49"/>
+      <c r="M123" s="49"/>
+      <c r="N123" s="49"/>
+      <c r="O123" s="49"/>
+      <c r="P123" s="49"/>
+      <c r="Q123" s="50"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A124" s="48"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="52"/>
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="54"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="54"/>
-      <c r="P124" s="54"/>
-      <c r="Q124" s="55"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="49"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="49"/>
+      <c r="K124" s="49"/>
+      <c r="L124" s="49"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="49"/>
+      <c r="O124" s="49"/>
+      <c r="P124" s="49"/>
+      <c r="Q124" s="50"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A125" s="48"/>
-      <c r="B125" s="49"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="54"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="54"/>
-      <c r="P125" s="54"/>
-      <c r="Q125" s="55"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
+      <c r="K125" s="49"/>
+      <c r="L125" s="49"/>
+      <c r="M125" s="49"/>
+      <c r="N125" s="49"/>
+      <c r="O125" s="49"/>
+      <c r="P125" s="49"/>
+      <c r="Q125" s="50"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A126" s="48"/>
-      <c r="B126" s="49"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="55"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="49"/>
+      <c r="I126" s="49"/>
+      <c r="J126" s="49"/>
+      <c r="K126" s="49"/>
+      <c r="L126" s="49"/>
+      <c r="M126" s="49"/>
+      <c r="N126" s="49"/>
+      <c r="O126" s="49"/>
+      <c r="P126" s="49"/>
+      <c r="Q126" s="50"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A127" s="48"/>
-      <c r="B127" s="49"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-      <c r="O127" s="54"/>
-      <c r="P127" s="54"/>
-      <c r="Q127" s="55"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="49"/>
+      <c r="I127" s="49"/>
+      <c r="J127" s="49"/>
+      <c r="K127" s="49"/>
+      <c r="L127" s="49"/>
+      <c r="M127" s="49"/>
+      <c r="N127" s="49"/>
+      <c r="O127" s="49"/>
+      <c r="P127" s="49"/>
+      <c r="Q127" s="50"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A128" s="48"/>
-      <c r="B128" s="49"/>
+      <c r="A128" s="51"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-      <c r="O128" s="54"/>
-      <c r="P128" s="54"/>
-      <c r="Q128" s="55"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="49"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="49"/>
+      <c r="L128" s="49"/>
+      <c r="M128" s="49"/>
+      <c r="N128" s="49"/>
+      <c r="O128" s="49"/>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="50"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A129" s="48"/>
-      <c r="B129" s="49"/>
+      <c r="A129" s="51"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
-      <c r="E129" s="61"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
-      <c r="N129" s="54"/>
-      <c r="O129" s="54"/>
-      <c r="P129" s="54"/>
-      <c r="Q129" s="55"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="49"/>
+      <c r="K129" s="49"/>
+      <c r="L129" s="49"/>
+      <c r="M129" s="49"/>
+      <c r="N129" s="49"/>
+      <c r="O129" s="49"/>
+      <c r="P129" s="49"/>
+      <c r="Q129" s="50"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A130" s="48"/>
-      <c r="B130" s="49"/>
+      <c r="A130" s="51"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
-      <c r="E130" s="61"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="54"/>
-      <c r="L130" s="54"/>
-      <c r="M130" s="54"/>
-      <c r="N130" s="54"/>
-      <c r="O130" s="54"/>
-      <c r="P130" s="54"/>
-      <c r="Q130" s="55"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="49"/>
+      <c r="K130" s="49"/>
+      <c r="L130" s="49"/>
+      <c r="M130" s="49"/>
+      <c r="N130" s="49"/>
+      <c r="O130" s="49"/>
+      <c r="P130" s="49"/>
+      <c r="Q130" s="50"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A131" s="48"/>
-      <c r="B131" s="49"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="54"/>
-      <c r="O131" s="54"/>
-      <c r="P131" s="54"/>
-      <c r="Q131" s="55"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="49"/>
+      <c r="I131" s="49"/>
+      <c r="J131" s="49"/>
+      <c r="K131" s="49"/>
+      <c r="L131" s="49"/>
+      <c r="M131" s="49"/>
+      <c r="N131" s="49"/>
+      <c r="O131" s="49"/>
+      <c r="P131" s="49"/>
+      <c r="Q131" s="50"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A132" s="48"/>
-      <c r="B132" s="49"/>
+      <c r="A132" s="51"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
-      <c r="P132" s="54"/>
-      <c r="Q132" s="55"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="49"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="49"/>
+      <c r="K132" s="49"/>
+      <c r="L132" s="49"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="49"/>
+      <c r="O132" s="49"/>
+      <c r="P132" s="49"/>
+      <c r="Q132" s="50"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A133" s="48"/>
-      <c r="B133" s="49"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
-      <c r="N133" s="54"/>
-      <c r="O133" s="54"/>
-      <c r="P133" s="54"/>
-      <c r="Q133" s="55"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="49"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="49"/>
+      <c r="K133" s="49"/>
+      <c r="L133" s="49"/>
+      <c r="M133" s="49"/>
+      <c r="N133" s="49"/>
+      <c r="O133" s="49"/>
+      <c r="P133" s="49"/>
+      <c r="Q133" s="50"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A134" s="48"/>
-      <c r="B134" s="49"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
-      <c r="P134" s="54"/>
-      <c r="Q134" s="55"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="49"/>
+      <c r="K134" s="49"/>
+      <c r="L134" s="49"/>
+      <c r="M134" s="49"/>
+      <c r="N134" s="49"/>
+      <c r="O134" s="49"/>
+      <c r="P134" s="49"/>
+      <c r="Q134" s="50"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A135" s="48"/>
-      <c r="B135" s="49"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
-      <c r="E135" s="61"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="54"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="54"/>
-      <c r="N135" s="54"/>
-      <c r="O135" s="54"/>
-      <c r="P135" s="54"/>
-      <c r="Q135" s="55"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="49"/>
+      <c r="L135" s="49"/>
+      <c r="M135" s="49"/>
+      <c r="N135" s="49"/>
+      <c r="O135" s="49"/>
+      <c r="P135" s="49"/>
+      <c r="Q135" s="50"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A136" s="48"/>
-      <c r="B136" s="49"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="54"/>
-      <c r="H136" s="54"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="54"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="54"/>
-      <c r="N136" s="54"/>
-      <c r="O136" s="54"/>
-      <c r="P136" s="54"/>
-      <c r="Q136" s="55"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="49"/>
+      <c r="K136" s="49"/>
+      <c r="L136" s="49"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="49"/>
+      <c r="O136" s="49"/>
+      <c r="P136" s="49"/>
+      <c r="Q136" s="50"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A137" s="48"/>
-      <c r="B137" s="49"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="54"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="54"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
-      <c r="P137" s="54"/>
-      <c r="Q137" s="55"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="49"/>
+      <c r="K137" s="49"/>
+      <c r="L137" s="49"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49"/>
+      <c r="O137" s="49"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="50"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A138" s="48"/>
-      <c r="B138" s="49"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
-      <c r="E138" s="61"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="54"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="K138" s="54"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="54"/>
-      <c r="O138" s="54"/>
-      <c r="P138" s="54"/>
-      <c r="Q138" s="55"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="49"/>
+      <c r="J138" s="49"/>
+      <c r="K138" s="49"/>
+      <c r="L138" s="49"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="49"/>
+      <c r="O138" s="49"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="50"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A139" s="48"/>
-      <c r="B139" s="49"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
-      <c r="E139" s="61"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="K139" s="54"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
-      <c r="O139" s="54"/>
-      <c r="P139" s="54"/>
-      <c r="Q139" s="55"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="49"/>
+      <c r="K139" s="49"/>
+      <c r="L139" s="49"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="49"/>
+      <c r="O139" s="49"/>
+      <c r="P139" s="49"/>
+      <c r="Q139" s="50"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A140" s="48"/>
-      <c r="B140" s="49"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
-      <c r="E140" s="61"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
-      <c r="K140" s="54"/>
-      <c r="L140" s="54"/>
-      <c r="M140" s="54"/>
-      <c r="N140" s="54"/>
-      <c r="O140" s="54"/>
-      <c r="P140" s="54"/>
-      <c r="Q140" s="55"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="49"/>
+      <c r="I140" s="49"/>
+      <c r="J140" s="49"/>
+      <c r="K140" s="49"/>
+      <c r="L140" s="49"/>
+      <c r="M140" s="49"/>
+      <c r="N140" s="49"/>
+      <c r="O140" s="49"/>
+      <c r="P140" s="49"/>
+      <c r="Q140" s="50"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A141" s="48"/>
-      <c r="B141" s="49"/>
+      <c r="A141" s="51"/>
+      <c r="B141" s="52"/>
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
-      <c r="E141" s="61"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="54"/>
-      <c r="J141" s="54"/>
-      <c r="K141" s="54"/>
-      <c r="L141" s="54"/>
-      <c r="M141" s="54"/>
-      <c r="N141" s="54"/>
-      <c r="O141" s="54"/>
-      <c r="P141" s="54"/>
-      <c r="Q141" s="55"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="49"/>
+      <c r="I141" s="49"/>
+      <c r="J141" s="49"/>
+      <c r="K141" s="49"/>
+      <c r="L141" s="49"/>
+      <c r="M141" s="49"/>
+      <c r="N141" s="49"/>
+      <c r="O141" s="49"/>
+      <c r="P141" s="49"/>
+      <c r="Q141" s="50"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A142" s="48"/>
-      <c r="B142" s="49"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="54"/>
-      <c r="H142" s="54"/>
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="54"/>
-      <c r="L142" s="54"/>
-      <c r="M142" s="54"/>
-      <c r="N142" s="54"/>
-      <c r="O142" s="54"/>
-      <c r="P142" s="54"/>
-      <c r="Q142" s="55"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="49"/>
+      <c r="I142" s="49"/>
+      <c r="J142" s="49"/>
+      <c r="K142" s="49"/>
+      <c r="L142" s="49"/>
+      <c r="M142" s="49"/>
+      <c r="N142" s="49"/>
+      <c r="O142" s="49"/>
+      <c r="P142" s="49"/>
+      <c r="Q142" s="50"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A143" s="48"/>
-      <c r="B143" s="49"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="54"/>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-      <c r="O143" s="54"/>
-      <c r="P143" s="54"/>
-      <c r="Q143" s="55"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
+      <c r="I143" s="49"/>
+      <c r="J143" s="49"/>
+      <c r="K143" s="49"/>
+      <c r="L143" s="49"/>
+      <c r="M143" s="49"/>
+      <c r="N143" s="49"/>
+      <c r="O143" s="49"/>
+      <c r="P143" s="49"/>
+      <c r="Q143" s="50"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A144" s="48"/>
-      <c r="B144" s="49"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="54"/>
-      <c r="L144" s="54"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="54"/>
-      <c r="O144" s="54"/>
-      <c r="P144" s="54"/>
-      <c r="Q144" s="55"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="49"/>
+      <c r="J144" s="49"/>
+      <c r="K144" s="49"/>
+      <c r="L144" s="49"/>
+      <c r="M144" s="49"/>
+      <c r="N144" s="49"/>
+      <c r="O144" s="49"/>
+      <c r="P144" s="49"/>
+      <c r="Q144" s="50"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A145" s="48"/>
-      <c r="B145" s="49"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="54"/>
-      <c r="H145" s="54"/>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54"/>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
-      <c r="O145" s="54"/>
-      <c r="P145" s="54"/>
-      <c r="Q145" s="55"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="49"/>
+      <c r="I145" s="49"/>
+      <c r="J145" s="49"/>
+      <c r="K145" s="49"/>
+      <c r="L145" s="49"/>
+      <c r="M145" s="49"/>
+      <c r="N145" s="49"/>
+      <c r="O145" s="49"/>
+      <c r="P145" s="49"/>
+      <c r="Q145" s="50"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A146" s="48"/>
-      <c r="B146" s="49"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
-      <c r="E146" s="61"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="54"/>
-      <c r="H146" s="54"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="54"/>
-      <c r="N146" s="54"/>
-      <c r="O146" s="54"/>
-      <c r="P146" s="54"/>
-      <c r="Q146" s="55"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="49"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="49"/>
+      <c r="K146" s="49"/>
+      <c r="L146" s="49"/>
+      <c r="M146" s="49"/>
+      <c r="N146" s="49"/>
+      <c r="O146" s="49"/>
+      <c r="P146" s="49"/>
+      <c r="Q146" s="50"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A147" s="48"/>
-      <c r="B147" s="49"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="54"/>
-      <c r="O147" s="54"/>
-      <c r="P147" s="54"/>
-      <c r="Q147" s="55"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="49"/>
+      <c r="K147" s="49"/>
+      <c r="L147" s="49"/>
+      <c r="M147" s="49"/>
+      <c r="N147" s="49"/>
+      <c r="O147" s="49"/>
+      <c r="P147" s="49"/>
+      <c r="Q147" s="50"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A148" s="48"/>
-      <c r="B148" s="49"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="54"/>
-      <c r="M148" s="54"/>
-      <c r="N148" s="54"/>
-      <c r="O148" s="54"/>
-      <c r="P148" s="54"/>
-      <c r="Q148" s="55"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="49"/>
+      <c r="M148" s="49"/>
+      <c r="N148" s="49"/>
+      <c r="O148" s="49"/>
+      <c r="P148" s="49"/>
+      <c r="Q148" s="50"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A149" s="48"/>
-      <c r="B149" s="49"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="54"/>
-      <c r="H149" s="54"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="54"/>
-      <c r="O149" s="54"/>
-      <c r="P149" s="54"/>
-      <c r="Q149" s="55"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="49"/>
+      <c r="L149" s="49"/>
+      <c r="M149" s="49"/>
+      <c r="N149" s="49"/>
+      <c r="O149" s="49"/>
+      <c r="P149" s="49"/>
+      <c r="Q149" s="50"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A150" s="54"/>
-      <c r="B150" s="55"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="50"/>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="54"/>
-      <c r="H150" s="54"/>
-      <c r="I150" s="54"/>
-      <c r="J150" s="54"/>
-      <c r="K150" s="54"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="54"/>
-      <c r="N150" s="54"/>
-      <c r="O150" s="54"/>
-      <c r="P150" s="54"/>
-      <c r="Q150" s="55"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="49"/>
+      <c r="I150" s="49"/>
+      <c r="J150" s="49"/>
+      <c r="K150" s="49"/>
+      <c r="L150" s="49"/>
+      <c r="M150" s="49"/>
+      <c r="N150" s="49"/>
+      <c r="O150" s="49"/>
+      <c r="P150" s="49"/>
+      <c r="Q150" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="E145:Q145"/>
-    <mergeCell ref="E146:Q146"/>
-    <mergeCell ref="E147:Q147"/>
-    <mergeCell ref="E148:Q148"/>
-    <mergeCell ref="E149:Q149"/>
-    <mergeCell ref="E150:Q150"/>
-    <mergeCell ref="E139:Q139"/>
-    <mergeCell ref="E140:Q140"/>
-    <mergeCell ref="E141:Q141"/>
-    <mergeCell ref="E142:Q142"/>
-    <mergeCell ref="E143:Q143"/>
-    <mergeCell ref="E144:Q144"/>
-    <mergeCell ref="E133:Q133"/>
-    <mergeCell ref="E134:Q134"/>
-    <mergeCell ref="E135:Q135"/>
-    <mergeCell ref="E136:Q136"/>
-    <mergeCell ref="E137:Q137"/>
-    <mergeCell ref="E138:Q138"/>
-    <mergeCell ref="E127:Q127"/>
-    <mergeCell ref="E128:Q128"/>
-    <mergeCell ref="E129:Q129"/>
-    <mergeCell ref="E130:Q130"/>
-    <mergeCell ref="E131:Q131"/>
-    <mergeCell ref="E132:Q132"/>
-    <mergeCell ref="E121:Q121"/>
-    <mergeCell ref="E122:Q122"/>
-    <mergeCell ref="E123:Q123"/>
-    <mergeCell ref="E124:Q124"/>
-    <mergeCell ref="E125:Q125"/>
-    <mergeCell ref="E126:Q126"/>
-    <mergeCell ref="E115:Q115"/>
-    <mergeCell ref="E116:Q116"/>
-    <mergeCell ref="E117:Q117"/>
-    <mergeCell ref="E118:Q118"/>
-    <mergeCell ref="E119:Q119"/>
-    <mergeCell ref="E120:Q120"/>
-    <mergeCell ref="E109:Q109"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E111:Q111"/>
-    <mergeCell ref="E112:Q112"/>
-    <mergeCell ref="E113:Q113"/>
-    <mergeCell ref="E114:Q114"/>
-    <mergeCell ref="E103:Q103"/>
-    <mergeCell ref="E104:Q104"/>
-    <mergeCell ref="E105:Q105"/>
-    <mergeCell ref="E106:Q106"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E97:Q97"/>
-    <mergeCell ref="E98:Q98"/>
-    <mergeCell ref="E99:Q99"/>
-    <mergeCell ref="E100:Q100"/>
-    <mergeCell ref="E101:Q101"/>
-    <mergeCell ref="E102:Q102"/>
-    <mergeCell ref="E91:Q91"/>
-    <mergeCell ref="E92:Q92"/>
-    <mergeCell ref="E93:Q93"/>
-    <mergeCell ref="E94:Q94"/>
-    <mergeCell ref="E95:Q95"/>
-    <mergeCell ref="E96:Q96"/>
-    <mergeCell ref="E85:Q85"/>
-    <mergeCell ref="E86:Q86"/>
-    <mergeCell ref="E87:Q87"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="E89:Q89"/>
-    <mergeCell ref="E90:Q90"/>
-    <mergeCell ref="E79:Q79"/>
-    <mergeCell ref="E80:Q80"/>
-    <mergeCell ref="E81:Q81"/>
-    <mergeCell ref="E82:Q82"/>
-    <mergeCell ref="E83:Q83"/>
-    <mergeCell ref="E84:Q84"/>
-    <mergeCell ref="E73:Q73"/>
-    <mergeCell ref="E74:Q74"/>
-    <mergeCell ref="E75:Q75"/>
-    <mergeCell ref="E76:Q76"/>
-    <mergeCell ref="E77:Q77"/>
-    <mergeCell ref="E78:Q78"/>
-    <mergeCell ref="E67:Q67"/>
-    <mergeCell ref="E68:Q68"/>
-    <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="E70:Q70"/>
-    <mergeCell ref="E71:Q71"/>
-    <mergeCell ref="E72:Q72"/>
-    <mergeCell ref="E61:Q61"/>
-    <mergeCell ref="E62:Q62"/>
-    <mergeCell ref="E63:Q63"/>
-    <mergeCell ref="E64:Q64"/>
-    <mergeCell ref="E65:Q65"/>
-    <mergeCell ref="E66:Q66"/>
-    <mergeCell ref="E55:Q55"/>
-    <mergeCell ref="E56:Q56"/>
-    <mergeCell ref="E57:Q57"/>
-    <mergeCell ref="E58:Q58"/>
-    <mergeCell ref="E59:Q59"/>
-    <mergeCell ref="E60:Q60"/>
-    <mergeCell ref="E49:Q49"/>
-    <mergeCell ref="E50:Q50"/>
-    <mergeCell ref="E51:Q51"/>
-    <mergeCell ref="E52:Q52"/>
-    <mergeCell ref="E53:Q53"/>
-    <mergeCell ref="E54:Q54"/>
-    <mergeCell ref="E43:Q43"/>
-    <mergeCell ref="E44:Q44"/>
-    <mergeCell ref="E45:Q45"/>
-    <mergeCell ref="E46:Q46"/>
-    <mergeCell ref="E47:Q47"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="E37:Q37"/>
-    <mergeCell ref="E38:Q38"/>
-    <mergeCell ref="E39:Q39"/>
-    <mergeCell ref="E40:Q40"/>
-    <mergeCell ref="E41:Q41"/>
-    <mergeCell ref="E42:Q42"/>
-    <mergeCell ref="E31:Q31"/>
-    <mergeCell ref="E32:Q32"/>
-    <mergeCell ref="E33:Q33"/>
-    <mergeCell ref="E34:Q34"/>
-    <mergeCell ref="E35:Q35"/>
-    <mergeCell ref="E36:Q36"/>
-    <mergeCell ref="E25:Q25"/>
-    <mergeCell ref="E26:Q26"/>
-    <mergeCell ref="E27:Q27"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="E29:Q29"/>
-    <mergeCell ref="E30:Q30"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="E23:Q23"/>
-    <mergeCell ref="E24:Q24"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="E10:Q10"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="A147:B147"/>
     <mergeCell ref="A148:B148"/>
@@ -16226,136 +16212,150 @@
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E25:Q25"/>
+    <mergeCell ref="E26:Q26"/>
+    <mergeCell ref="E27:Q27"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="E29:Q29"/>
+    <mergeCell ref="E30:Q30"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="E23:Q23"/>
+    <mergeCell ref="E24:Q24"/>
+    <mergeCell ref="E37:Q37"/>
+    <mergeCell ref="E38:Q38"/>
+    <mergeCell ref="E39:Q39"/>
+    <mergeCell ref="E40:Q40"/>
+    <mergeCell ref="E41:Q41"/>
+    <mergeCell ref="E42:Q42"/>
+    <mergeCell ref="E31:Q31"/>
+    <mergeCell ref="E32:Q32"/>
+    <mergeCell ref="E33:Q33"/>
+    <mergeCell ref="E34:Q34"/>
+    <mergeCell ref="E35:Q35"/>
+    <mergeCell ref="E36:Q36"/>
+    <mergeCell ref="E49:Q49"/>
+    <mergeCell ref="E50:Q50"/>
+    <mergeCell ref="E51:Q51"/>
+    <mergeCell ref="E52:Q52"/>
+    <mergeCell ref="E53:Q53"/>
+    <mergeCell ref="E54:Q54"/>
+    <mergeCell ref="E43:Q43"/>
+    <mergeCell ref="E44:Q44"/>
+    <mergeCell ref="E45:Q45"/>
+    <mergeCell ref="E46:Q46"/>
+    <mergeCell ref="E47:Q47"/>
+    <mergeCell ref="E48:Q48"/>
+    <mergeCell ref="E61:Q61"/>
+    <mergeCell ref="E62:Q62"/>
+    <mergeCell ref="E63:Q63"/>
+    <mergeCell ref="E64:Q64"/>
+    <mergeCell ref="E65:Q65"/>
+    <mergeCell ref="E66:Q66"/>
+    <mergeCell ref="E55:Q55"/>
+    <mergeCell ref="E56:Q56"/>
+    <mergeCell ref="E57:Q57"/>
+    <mergeCell ref="E58:Q58"/>
+    <mergeCell ref="E59:Q59"/>
+    <mergeCell ref="E60:Q60"/>
+    <mergeCell ref="E73:Q73"/>
+    <mergeCell ref="E74:Q74"/>
+    <mergeCell ref="E75:Q75"/>
+    <mergeCell ref="E76:Q76"/>
+    <mergeCell ref="E77:Q77"/>
+    <mergeCell ref="E78:Q78"/>
+    <mergeCell ref="E67:Q67"/>
+    <mergeCell ref="E68:Q68"/>
+    <mergeCell ref="E69:Q69"/>
+    <mergeCell ref="E70:Q70"/>
+    <mergeCell ref="E71:Q71"/>
+    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="E85:Q85"/>
+    <mergeCell ref="E86:Q86"/>
+    <mergeCell ref="E87:Q87"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="E89:Q89"/>
+    <mergeCell ref="E90:Q90"/>
+    <mergeCell ref="E79:Q79"/>
+    <mergeCell ref="E80:Q80"/>
+    <mergeCell ref="E81:Q81"/>
+    <mergeCell ref="E82:Q82"/>
+    <mergeCell ref="E83:Q83"/>
+    <mergeCell ref="E84:Q84"/>
+    <mergeCell ref="E97:Q97"/>
+    <mergeCell ref="E98:Q98"/>
+    <mergeCell ref="E99:Q99"/>
+    <mergeCell ref="E100:Q100"/>
+    <mergeCell ref="E101:Q101"/>
+    <mergeCell ref="E102:Q102"/>
+    <mergeCell ref="E91:Q91"/>
+    <mergeCell ref="E92:Q92"/>
+    <mergeCell ref="E93:Q93"/>
+    <mergeCell ref="E94:Q94"/>
+    <mergeCell ref="E95:Q95"/>
+    <mergeCell ref="E96:Q96"/>
+    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E111:Q111"/>
+    <mergeCell ref="E112:Q112"/>
+    <mergeCell ref="E113:Q113"/>
+    <mergeCell ref="E114:Q114"/>
+    <mergeCell ref="E103:Q103"/>
+    <mergeCell ref="E104:Q104"/>
+    <mergeCell ref="E105:Q105"/>
+    <mergeCell ref="E106:Q106"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E121:Q121"/>
+    <mergeCell ref="E122:Q122"/>
+    <mergeCell ref="E123:Q123"/>
+    <mergeCell ref="E124:Q124"/>
+    <mergeCell ref="E125:Q125"/>
+    <mergeCell ref="E126:Q126"/>
+    <mergeCell ref="E115:Q115"/>
+    <mergeCell ref="E116:Q116"/>
+    <mergeCell ref="E117:Q117"/>
+    <mergeCell ref="E118:Q118"/>
+    <mergeCell ref="E119:Q119"/>
+    <mergeCell ref="E120:Q120"/>
+    <mergeCell ref="E133:Q133"/>
+    <mergeCell ref="E134:Q134"/>
+    <mergeCell ref="E135:Q135"/>
+    <mergeCell ref="E136:Q136"/>
+    <mergeCell ref="E137:Q137"/>
+    <mergeCell ref="E138:Q138"/>
+    <mergeCell ref="E127:Q127"/>
+    <mergeCell ref="E128:Q128"/>
+    <mergeCell ref="E129:Q129"/>
+    <mergeCell ref="E130:Q130"/>
+    <mergeCell ref="E131:Q131"/>
+    <mergeCell ref="E132:Q132"/>
+    <mergeCell ref="E145:Q145"/>
+    <mergeCell ref="E146:Q146"/>
+    <mergeCell ref="E147:Q147"/>
+    <mergeCell ref="E148:Q148"/>
+    <mergeCell ref="E149:Q149"/>
+    <mergeCell ref="E150:Q150"/>
+    <mergeCell ref="E139:Q139"/>
+    <mergeCell ref="E140:Q140"/>
+    <mergeCell ref="E141:Q141"/>
+    <mergeCell ref="E142:Q142"/>
+    <mergeCell ref="E143:Q143"/>
+    <mergeCell ref="E144:Q144"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
